--- a/timetabling_GA/results/HK4_CT02_2025/LichHocKy_HK4_CT02_2025.xlsx
+++ b/timetabling_GA/results/HK4_CT02_2025/LichHocKy_HK4_CT02_2025.xlsx
@@ -85,14 +85,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFCCCB"/>
+        <bgColor rgb="00FFCCCB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
-        <bgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -660,7 +660,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -679,18 +679,22 @@
       <c r="I8" s="8" t="inlineStr">
         <is>
           <t>MH016
-(Theory)
-Room: LT3
+(Practice)
+Room: TH1
 Lecturer: GV006</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -701,7 +705,7 @@
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
+      <c r="I9" s="8" t="inlineStr">
         <is>
           <t>MH015
 (Practice)
@@ -712,11 +716,7 @@
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -731,10 +731,10 @@
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="8" t="inlineStr">
         <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
+          <t>MH016
+(Practice)
+Room: TH3
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="I10" s="7" t="inlineStr"/>
@@ -745,7 +745,7 @@
   <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -759,7 +759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -869,7 +869,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -882,43 +882,43 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -927,7 +927,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -938,51 +938,22 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1000,7 +971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1110,7 +1081,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1123,43 +1094,43 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -1168,7 +1139,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1179,51 +1150,22 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1241,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1351,7 +1293,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1364,43 +1306,43 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -1409,7 +1351,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1420,51 +1362,22 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1482,7 +1395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1592,7 +1505,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1605,43 +1518,43 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -1650,7 +1563,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1661,51 +1574,22 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1723,7 +1607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1833,7 +1717,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1846,43 +1730,43 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -1891,7 +1775,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1902,51 +1786,22 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -1964,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2074,7 +1929,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2087,43 +1942,43 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -2132,7 +1987,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2143,51 +1998,22 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2205,7 +2031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2320,22 +2146,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>MH016
 (Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2344,7 +2170,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2355,22 +2181,51 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
         <is>
           <t>MH015
 (Theory)
-Room: LT4
+Room: LT2
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
-    <row r="10"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2498,7 +2353,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2511,24 +2366,28 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -2536,25 +2395,21 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>MH015
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -2565,9 +2420,9 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>MH016
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH015
 (Practice)
 Room: TH3
 Lecturer: GV006</t>
@@ -2581,55 +2436,51 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>MH015
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH016
 (Practice)
 Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -2637,10 +2488,14 @@
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
@@ -2650,62 +2505,52 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH015
-(Theory)
-Room: LT4
+(Practice)
+Room: TH3
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>MH016
 (Practice)
-Room: TH1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2827,7 +2672,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2840,24 +2685,28 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -2865,25 +2714,21 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>MH015
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -2894,9 +2739,9 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>MH016
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH015
 (Practice)
 Room: TH3
 Lecturer: GV006</t>
@@ -2910,55 +2755,51 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>MH015
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH016
 (Practice)
 Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -2966,10 +2807,14 @@
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
@@ -2979,62 +2824,52 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH015
-(Theory)
-Room: LT4
+(Practice)
+Room: TH3
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>MH016
 (Practice)
-Room: TH1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3156,7 +2991,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3169,24 +3004,28 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -3194,25 +3033,21 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>MH015
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -3223,9 +3058,9 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>MH016
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH015
 (Practice)
 Room: TH3
 Lecturer: GV006</t>
@@ -3239,55 +3074,51 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>MH015
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH016
 (Practice)
 Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -3295,10 +3126,14 @@
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
@@ -3308,62 +3143,52 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH015
-(Theory)
-Room: LT4
+(Practice)
+Room: TH3
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>MH016
 (Practice)
-Room: TH1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15"/>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3485,7 +3310,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3498,24 +3323,28 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -3523,25 +3352,21 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="10" t="inlineStr">
-        <is>
-          <t>MH015
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -3552,9 +3377,9 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="10" t="inlineStr">
-        <is>
-          <t>MH016
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH015
 (Practice)
 Room: TH3
 Lecturer: GV006</t>
@@ -3568,55 +3393,51 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>MH015
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH016
 (Practice)
 Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -3624,10 +3445,14 @@
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
@@ -3637,226 +3462,32 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH015
-(Theory)
-Room: LT4
+(Practice)
+Room: TH3
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>MH016
-(Practice)
-Room: TH1
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="F14" s="7" t="inlineStr"/>
       <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="7" t="inlineStr"/>
-      <c r="J14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15"/>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 6 TIMETABLE (17/08/2026 - 23/08/2026)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-17/08</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-18/08</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-19/08</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-20/08</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-21/08</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-22/08</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-23/08</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="H14" s="8" t="inlineStr">
         <is>
           <t>MH016
 (Practice)
@@ -3864,135 +3495,16 @@
 Lecturer: GV006</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="10" t="inlineStr">
-        <is>
-          <t>MH015
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="9" t="n"/>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23AI</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="10" t="inlineStr">
-        <is>
-          <t>MH016
-(Practice)
-Room: TH1
-Lecturer: GV006</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="7" t="inlineStr"/>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A11:A12"/>
@@ -4001,7 +3513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4051,7 +3563,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 7 TIMETABLE (24/08/2026 - 30/08/2026)</t>
+          <t>WEEK 6 TIMETABLE (17/08/2026 - 23/08/2026)</t>
         </is>
       </c>
     </row>
@@ -4074,50 +3586,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-24/08</t>
+17/08</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-25/08</t>
+18/08</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-26/08</t>
+19/08</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-27/08</t>
+20/08</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-28/08</t>
+21/08</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-29/08</t>
+22/08</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-30/08</t>
+23/08</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4130,54 +3642,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>DH23AI</t>
@@ -4188,16 +3696,16 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH015
+(Practice)
+Room: TH3
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
@@ -4209,18 +3717,18 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="10" t="inlineStr">
         <is>
           <t>MH015
 (Theory)
-Room: LT4
-Lecturer: GV008</t>
+Room: LT2
+Lecturer: GV006</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr"/>
@@ -4232,9 +3740,10 @@
     </row>
     <row r="12"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -4242,13 +3751,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4292,7 +3801,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 8 TIMETABLE (31/08/2026 - 06/09/2026)</t>
+          <t>WEEK 7 TIMETABLE (24/08/2026 - 30/08/2026)</t>
         </is>
       </c>
     </row>
@@ -4315,50 +3824,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-31/08</t>
+24/08</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-01/09</t>
+25/08</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-02/09</t>
+26/08</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-03/09</t>
+27/08</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-04/09</t>
+28/08</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-05/09</t>
+29/08</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-06/09</t>
+30/08</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4371,43 +3880,43 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -4416,7 +3925,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -4427,51 +3936,22 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -4483,13 +3963,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4533,7 +4013,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 9 TIMETABLE (07/09/2026 - 13/09/2026)</t>
+          <t>WEEK 8 TIMETABLE (31/08/2026 - 06/09/2026)</t>
         </is>
       </c>
     </row>
@@ -4556,50 +4036,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-07/09</t>
+31/08</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-08/09</t>
+01/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-09/09</t>
+02/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-10/09</t>
+03/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-11/09</t>
+04/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-12/09</t>
+05/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-13/09</t>
+06/09</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -4612,43 +4092,43 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT3
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23AI</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MH016
-(Theory)
-Room: LT4
-Lecturer: GV006</t>
-        </is>
-      </c>
+      <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
@@ -4657,7 +4137,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -4668,51 +4148,234 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH015
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+    <row r="11"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 9 TIMETABLE (07/09/2026 - 13/09/2026)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+07/09</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+08/09</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+09/09</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+10/09</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+11/09</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+12/09</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+13/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH016
+(Theory)
+Room: LT1
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH015
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
         <is>
           <t>MH015
 (Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+Room: LT2
+Lecturer: GV006</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
